--- a/movimentacao_saida.xlsx
+++ b/movimentacao_saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,65 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Percentual</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>valor_ativo_atual</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>valor_ativo_total</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>perc_ideal_cat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>perc_real_cat</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>perc_real_ativo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>vs_perc_categoria</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>vs_perc_ativo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ajuste_ativo_qtd</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ajuste_ativo_val</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ajuste_categoria_val</t>
         </is>
@@ -532,7 +542,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="D2" t="n">
         <v>1.39</v>
@@ -544,37 +554,43 @@
         <v>13010.22</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
-        <v>13975.87</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5790</v>
-      </c>
       <c r="J2" t="n">
+        <v>14446.77</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6905</v>
+      </c>
+      <c r="L2" t="n">
         <v>15</v>
       </c>
-      <c r="K2" t="n">
-        <v>15.7252347417944</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.111959415809869</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.7252347417944005</v>
+        <v>13.41972746735864</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1119594158098689</v>
+        <v>4.896080427037482</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-1.580272532641365</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0.1039195729625177</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>146.56</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2228.68</v>
       </c>
     </row>
     <row r="3">
@@ -598,40 +614,46 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>11637.64</v>
+        <v>13028</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>12021</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>12021</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>15</v>
       </c>
-      <c r="K3" t="n">
-        <v>15.7252347417944</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10.61327532598453</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.7252347417944005</v>
+        <v>13.41972746735864</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6132753259845316</v>
+        <v>8.523647040321155</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-1.580272532641365</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1.476352959678845</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.17</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2082.12</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2228.68</v>
       </c>
     </row>
     <row r="4">
@@ -642,53 +664,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WA_IMAB5_ATIVO_FI_RF</t>
+          <t>KDIF11</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2840.33</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>2840.33</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.68</v>
+        <v>125.75</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8079.07</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
+        <v>139.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3058.44</v>
+      </c>
+      <c r="L4" t="n">
         <v>20</v>
       </c>
-      <c r="K4" t="n">
-        <v>19.6465843767749</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.132966832035757</v>
-      </c>
       <c r="M4" t="n">
-        <v>-0.3534156232251036</v>
+        <v>24.91420691509495</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3670331679642427</v>
+        <v>2.16862682422426</v>
       </c>
       <c r="O4" t="n">
-        <v>146.38</v>
+        <v>4.914206915094951</v>
       </c>
       <c r="P4" t="n">
-        <v>415.72</v>
+        <v>-0.3313731757757399</v>
       </c>
       <c r="Q4" t="n">
-        <v>527.11</v>
+        <v>3.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>467.34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2151.3</v>
       </c>
     </row>
     <row r="5">
@@ -699,53 +727,59 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tesouro IPCA+ 2045</t>
+          <t>WA_IMAB5_ATIVO_FI_RF</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.97</v>
+        <v>2136.63</v>
       </c>
       <c r="D5" t="n">
-        <v>13.96</v>
+        <v>2136.63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1110.85</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>1164.14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5790</v>
-      </c>
       <c r="J5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6326.43</v>
+      </c>
+      <c r="L5" t="n">
         <v>20</v>
       </c>
-      <c r="K5" t="n">
-        <v>19.6465843767749</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.111959415809869</v>
-      </c>
       <c r="M5" t="n">
-        <v>-0.3534156232251036</v>
+        <v>24.91420691509495</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1119594158098689</v>
+        <v>4.485837812602859</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.914206915094951</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.5141621873971411</v>
       </c>
       <c r="Q5" t="n">
-        <v>527.11</v>
+        <v>244.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>725.13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2151.3</v>
       </c>
     </row>
     <row r="6">
@@ -760,49 +794,55 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>103.97</v>
+        <v>104.21</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5586.2</v>
-      </c>
       <c r="J6" t="n">
+        <v>106.89</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6092.73</v>
+      </c>
+      <c r="L6" t="n">
         <v>20</v>
       </c>
-      <c r="K6" t="n">
-        <v>19.6465843767749</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.932025507529722</v>
-      </c>
       <c r="M6" t="n">
-        <v>-0.3534156232251036</v>
+        <v>24.91420691509495</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.06797449247027831</v>
+        <v>4.320129775557433</v>
       </c>
       <c r="O6" t="n">
-        <v>0.73</v>
+        <v>4.914206915094951</v>
       </c>
       <c r="P6" t="n">
-        <v>76.98999999999999</v>
+        <v>-0.679870224442567</v>
       </c>
       <c r="Q6" t="n">
-        <v>527.11</v>
+        <v>8.970000000000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>958.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2151.3</v>
       </c>
     </row>
     <row r="7">
@@ -813,53 +853,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KDIF11</t>
+          <t>Tesouro IPCA+ 2045</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>15.45</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>15.45</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>125.33</v>
+        <v>1132.36</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2797.2</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
+        <v>1272.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19659.2</v>
+      </c>
+      <c r="L7" t="n">
         <v>20</v>
       </c>
-      <c r="K7" t="n">
-        <v>19.6465843767749</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.469632621399545</v>
-      </c>
       <c r="M7" t="n">
-        <v>-0.3534156232251036</v>
+        <v>24.91420691509495</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03036737860045546</v>
+        <v>13.93961250271039</v>
       </c>
       <c r="O7" t="n">
-        <v>0.26</v>
+        <v>4.914206915094951</v>
       </c>
       <c r="P7" t="n">
-        <v>34.4</v>
+        <v>6.439612502710395</v>
       </c>
       <c r="Q7" t="n">
-        <v>527.11</v>
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2151.3</v>
       </c>
     </row>
     <row r="8">
@@ -870,53 +916,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PRIO3</t>
+          <t>GGBR4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>37.34</v>
+        <v>27.27</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>48.85</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>20.74</v>
       </c>
       <c r="K8" t="n">
-        <v>24.81835989801155</v>
+        <v>-41.48</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-0.02941193571520851</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0.02941193571520851</v>
       </c>
       <c r="Q8" t="n">
-        <v>71.53</v>
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>41.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="9">
@@ -927,53 +979,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GGBR4</t>
+          <t>BPAC11</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" t="n">
-        <v>27.27</v>
+        <v>20.88</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>21.55</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-43.1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>37.02</v>
       </c>
       <c r="K9" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03805275489143443</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03805275489143443</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P9" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="10">
@@ -984,53 +1042,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tesouro Selic 2027</t>
+          <t>Tesouro IPCA+ 2026</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.49</v>
+        <v>0.16</v>
       </c>
       <c r="D10" t="n">
-        <v>7.05</v>
+        <v>0.16</v>
       </c>
       <c r="E10" t="n">
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12270.26</v>
+        <v>3176.38</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13932.35</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6826.85</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3678.72</v>
       </c>
       <c r="K10" t="n">
-        <v>24.81835989801155</v>
+        <v>588.6</v>
       </c>
       <c r="L10" t="n">
-        <v>6.027388624839656</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N10" t="n">
-        <v>6.027388624839656</v>
+        <v>0.4173545169231372</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.4173545169231372</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="11">
@@ -1041,53 +1105,59 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tesouro IPCA+ 2026</t>
+          <t>Tesouro Selic 2027</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16</v>
+        <v>7.05</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.56</v>
       </c>
       <c r="F11" t="n">
-        <v>3176.38</v>
+        <v>12270.26</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3525.76</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>564.12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>14410.81</v>
       </c>
       <c r="K11" t="n">
-        <v>24.81835989801155</v>
+        <v>7061.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4980584707507191</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4980584707507191</v>
+        <v>5.006906983264268</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>5.006906983264268</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="12">
@@ -1117,34 +1187,40 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34.03</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>30.85</v>
       </c>
       <c r="K12" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="13">
@@ -1155,53 +1231,59 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RBRF11</t>
+          <t>Tesouro Selic 2029</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>3.44</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>65.06999999999999</v>
+        <v>13350.48</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14338.47</v>
       </c>
       <c r="K13" t="n">
-        <v>24.81835989801155</v>
+        <v>45739.72</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>32.43234581175596</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>32.43234581175596</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="14">
@@ -1212,53 +1294,59 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RANI3</t>
+          <t>KNCR11</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>9.640000000000001</v>
+        <v>98.92</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>103.46</v>
       </c>
       <c r="K14" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="15">
@@ -1269,53 +1357,59 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tesouro Selic 2029</t>
+          <t>ITUB4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.75</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
-        <v>12583.15</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>13860.52</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20790.78</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.29</v>
       </c>
       <c r="K15" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>18.35606624922824</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N15" t="n">
-        <v>18.35606624922824</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="16">
@@ -1326,53 +1420,59 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARZZ3</t>
+          <t>PRIO3</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F16" t="n">
-        <v>74.15000000000001</v>
+        <v>37.34</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.52</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>42.55</v>
       </c>
       <c r="K16" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="17">
@@ -1383,26 +1483,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JSRE11</t>
+          <t>SQIA3</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F17" t="n">
-        <v>61.74</v>
+        <v>16.39</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>68.59</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1411,25 +1511,31 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="18">
@@ -1440,53 +1546,59 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQIA3</t>
+          <t>TRPL4</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>16.39</v>
+        <v>24.31</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.15</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>26.47</v>
       </c>
       <c r="K18" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="19">
@@ -1497,20 +1609,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tesouro Prefixado 2026</t>
+          <t>VIVT3</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7.12</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
-        <v>7.12</v>
+        <v>45</v>
       </c>
       <c r="F19" t="n">
-        <v>708.92</v>
+        <v>39.65</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1522,28 +1634,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.49</v>
       </c>
       <c r="K19" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="20">
@@ -1554,53 +1672,59 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALUP11</t>
+          <t>ARZZ3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>27.49</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>28.43</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-28.43</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>58.78</v>
       </c>
       <c r="K20" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.02510069191562601</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.02510069191562601</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P20" t="n">
-        <v>28.43</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="21">
@@ -1611,53 +1735,59 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VIVT3</t>
+          <t>GUAR3</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="F21" t="n">
-        <v>39.65</v>
+        <v>6.11</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>45.82</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="K21" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="22">
@@ -1668,53 +1798,59 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRPL4</t>
+          <t>ALUP11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>24.31</v>
+        <v>27.49</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>22.31</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>29.05</v>
       </c>
       <c r="K22" t="n">
-        <v>24.81835989801155</v>
+        <v>-29.05</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0.02059828188348137</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-0.02059828188348137</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.53</v>
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="23">
@@ -1725,7 +1861,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KNCR11</t>
+          <t>JSRE11</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1738,40 +1874,46 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>98.92</v>
+        <v>61.74</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>101.48</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="24">
@@ -1782,53 +1924,59 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>RANI3</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="E24" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>26.99</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="25">
@@ -1839,53 +1987,59 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GUAR3</t>
+          <t>RBRF11</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>6.11</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.94</v>
       </c>
       <c r="K25" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="26">
@@ -1896,26 +2050,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BPAC11</t>
+          <t>Tesouro Prefixado 2026</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>7.12</v>
       </c>
       <c r="E26" t="n">
-        <v>71</v>
+        <v>7.12</v>
       </c>
       <c r="F26" t="n">
-        <v>20.88</v>
+        <v>708.92</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>30.86</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1924,25 +2078,31 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>24.81835989801155</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>24.81835989801155</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.80659709434467</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.53</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>70.53</v>
       </c>
     </row>
     <row r="27">
@@ -1953,53 +2113,59 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BLQD39</t>
+          <t>BNDX11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>54.08</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>49.88</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1546.28</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1288.98</v>
+      </c>
+      <c r="L27" t="n">
         <v>20</v>
       </c>
-      <c r="K27" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.365202177112001</v>
-      </c>
       <c r="M27" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.1347978228879994</v>
+        <v>0.9139681026564481</v>
       </c>
       <c r="O27" t="n">
-        <v>3.06</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P27" t="n">
-        <v>152.68</v>
+        <v>-0.08603189734355188</v>
       </c>
       <c r="Q27" t="n">
-        <v>936.0799999999999</v>
+        <v>1.32</v>
+      </c>
+      <c r="R27" t="n">
+        <v>121.33</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="28">
@@ -2010,53 +2176,59 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BHYG39</t>
+          <t>GOLD11</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>46.28</v>
+        <v>10.05</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>45.43</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1635.48</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3667.95</v>
+      </c>
+      <c r="L28" t="n">
         <v>20</v>
       </c>
-      <c r="K28" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.443956370530004</v>
-      </c>
       <c r="M28" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.05604362946999575</v>
+        <v>2.600807849725146</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P28" t="n">
-        <v>63.48</v>
+        <v>-0.3991921502748541</v>
       </c>
       <c r="Q28" t="n">
-        <v>936.0799999999999</v>
+        <v>53.87</v>
+      </c>
+      <c r="R28" t="n">
+        <v>562.99</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="29">
@@ -2067,53 +2239,59 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USDB11</t>
+          <t>BHYG39</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>92.19</v>
+        <v>46.27</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>85.36</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2134</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1820.2</v>
+      </c>
+      <c r="L29" t="n">
         <v>20</v>
       </c>
-      <c r="K29" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.884096959125779</v>
-      </c>
       <c r="M29" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.1159030408742208</v>
+        <v>1.290636581215587</v>
       </c>
       <c r="O29" t="n">
-        <v>1.54</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P29" t="n">
-        <v>131.28</v>
+        <v>-0.2093634187844133</v>
       </c>
       <c r="Q29" t="n">
-        <v>936.0799999999999</v>
+        <v>6.16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>295.27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="30">
@@ -2124,53 +2302,59 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BNDX11</t>
+          <t>ALUG11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>86.11</v>
+        <v>34.75</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>88.42</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1149.46</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3195.06</v>
+      </c>
+      <c r="L30" t="n">
         <v>20</v>
       </c>
-      <c r="K30" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.014851963747291</v>
-      </c>
       <c r="M30" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01485196374729059</v>
+        <v>2.265499019436695</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>-0.2345009805633049</v>
       </c>
       <c r="Q30" t="n">
-        <v>936.0799999999999</v>
+        <v>9.73</v>
+      </c>
+      <c r="R30" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="31">
@@ -2181,53 +2365,59 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GOLD11</t>
+          <t>WRLD11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>321</v>
+        <v>138</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>10.02</v>
+        <v>81.69</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3338.4</v>
+        <v>8.5</v>
       </c>
       <c r="J31" t="n">
+        <v>92.98</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11064.62</v>
+      </c>
+      <c r="L31" t="n">
         <v>20</v>
       </c>
-      <c r="K31" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.947455149177836</v>
-      </c>
       <c r="M31" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.05254485082216442</v>
+        <v>7.845513311311726</v>
       </c>
       <c r="O31" t="n">
-        <v>5.72</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P31" t="n">
-        <v>59.51</v>
+        <v>-0.6544866886882739</v>
       </c>
       <c r="Q31" t="n">
-        <v>936.0799999999999</v>
+        <v>9.93</v>
+      </c>
+      <c r="R31" t="n">
+        <v>923.03</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="32">
@@ -2238,53 +2428,59 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ALUG11</t>
+          <t>BLQD39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.02</v>
+        <v>54.04</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>29.27</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2546.49</v>
+        <v>1.5</v>
       </c>
       <c r="J32" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1819</v>
+      </c>
+      <c r="L32" t="n">
         <v>20</v>
       </c>
-      <c r="K32" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.248282130011342</v>
-      </c>
       <c r="M32" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.2517178699886577</v>
+        <v>1.28978570554398</v>
       </c>
       <c r="O32" t="n">
-        <v>9.74</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P32" t="n">
-        <v>285.11</v>
+        <v>-0.2102142944560204</v>
       </c>
       <c r="Q32" t="n">
-        <v>936.0799999999999</v>
+        <v>5.54</v>
+      </c>
+      <c r="R32" t="n">
+        <v>296.47</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="33">
@@ -2295,53 +2491,59 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WRLD11</t>
+          <t>USDB11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>81.58</v>
+        <v>82.31</v>
       </c>
       <c r="G33" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>80.2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9383.4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2514.12</v>
+      </c>
+      <c r="L33" t="n">
         <v>20</v>
       </c>
-      <c r="K33" t="n">
-        <v>19.1883974236784</v>
-      </c>
-      <c r="L33" t="n">
-        <v>8.284552673974149</v>
-      </c>
       <c r="M33" t="n">
-        <v>-0.8116025763216008</v>
+        <v>17.98888018947299</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.2154473260258509</v>
+        <v>1.782669619583414</v>
       </c>
       <c r="O33" t="n">
-        <v>3.04</v>
+        <v>-2.011119810527006</v>
       </c>
       <c r="P33" t="n">
-        <v>244.02</v>
+        <v>-0.217330380416586</v>
       </c>
       <c r="Q33" t="n">
-        <v>936.0799999999999</v>
+        <v>3.41</v>
+      </c>
+      <c r="R33" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2836.31</v>
       </c>
     </row>
     <row r="34">
@@ -2368,37 +2570,43 @@
         <v>1.35</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3412.83</v>
-      </c>
       <c r="J34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3577.95</v>
+      </c>
+      <c r="L34" t="n">
         <v>12</v>
       </c>
-      <c r="K34" t="n">
-        <v>11.9503661407823</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.013168990165526</v>
-      </c>
       <c r="M34" t="n">
-        <v>-0.04963385921769614</v>
+        <v>10.44497394122349</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01316899016552586</v>
+        <v>2.536992174354636</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.555026058776505</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-0.4630078256453642</v>
       </c>
       <c r="Q34" t="n">
-        <v>416.09</v>
+        <v>450.33</v>
+      </c>
+      <c r="R34" t="n">
+        <v>652.99</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2193.09</v>
       </c>
     </row>
     <row r="35">
@@ -2425,37 +2633,43 @@
         <v>1.27</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>3</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3742.88</v>
-      </c>
       <c r="J35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4015.19</v>
+      </c>
+      <c r="L35" t="n">
         <v>12</v>
       </c>
-      <c r="K35" t="n">
-        <v>11.9503661407823</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.30456833475759</v>
-      </c>
       <c r="M35" t="n">
-        <v>-0.04963385921769614</v>
+        <v>10.44497394122349</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3045683347575898</v>
+        <v>2.847022906565768</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-1.555026058776505</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-0.1529770934342318</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.09</v>
+        <v>147.77</v>
+      </c>
+      <c r="R35" t="n">
+        <v>215.75</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2193.09</v>
       </c>
     </row>
     <row r="36">
@@ -2466,53 +2680,59 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KINEA_ATLAS_II_FIM</t>
+          <t>GARDE_PORTHOS_FIC_FIM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1530.75</v>
+        <v>2399.95</v>
       </c>
       <c r="D36" t="n">
-        <v>1530.75</v>
+        <v>2399.95</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3220.43</v>
-      </c>
       <c r="J36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3300.62</v>
+      </c>
+      <c r="L36" t="n">
         <v>12</v>
       </c>
-      <c r="K36" t="n">
-        <v>11.9503661407823</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.84330007969889</v>
-      </c>
       <c r="M36" t="n">
-        <v>-0.04963385921769614</v>
+        <v>10.44497394122349</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.1566999203011097</v>
+        <v>2.340347716015707</v>
       </c>
       <c r="O36" t="n">
-        <v>84.52</v>
+        <v>-1.555026058776505</v>
       </c>
       <c r="P36" t="n">
-        <v>177.48</v>
+        <v>-0.6596522839842933</v>
       </c>
       <c r="Q36" t="n">
-        <v>416.09</v>
+        <v>674.14</v>
+      </c>
+      <c r="R36" t="n">
+        <v>930.3200000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2193.09</v>
       </c>
     </row>
     <row r="37">
@@ -2523,53 +2743,59 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GARDE_PORTHOS_FIC_FIM</t>
+          <t>KINEA_ATLAS_II_FIM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2399.95</v>
+        <v>1749.72</v>
       </c>
       <c r="D37" t="n">
-        <v>2399.95</v>
+        <v>1749.72</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>3</v>
       </c>
-      <c r="H37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3159.3</v>
-      </c>
       <c r="J37" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3836.91</v>
+      </c>
+      <c r="L37" t="n">
         <v>12</v>
       </c>
-      <c r="K37" t="n">
-        <v>11.9503661407823</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.789328736160297</v>
-      </c>
       <c r="M37" t="n">
-        <v>-0.04963385921769614</v>
+        <v>10.44497394122349</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.2106712638397026</v>
+        <v>2.720611144287384</v>
       </c>
       <c r="O37" t="n">
-        <v>180.77</v>
+        <v>-1.555026058776505</v>
       </c>
       <c r="P37" t="n">
-        <v>238.61</v>
+        <v>-0.2793888557126158</v>
       </c>
       <c r="Q37" t="n">
-        <v>416.09</v>
+        <v>179.92</v>
+      </c>
+      <c r="R37" t="n">
+        <v>394.03</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2193.09</v>
       </c>
     </row>
     <row r="38">
@@ -2580,53 +2806,59 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VISC11</t>
+          <t>HGLG11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>104.1</v>
+        <v>162.93</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>115.6</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1502.8</v>
-      </c>
       <c r="J38" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1318</v>
+      </c>
+      <c r="L38" t="n">
         <v>15</v>
       </c>
-      <c r="K38" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.326813922293449</v>
-      </c>
       <c r="M38" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3268139222934492</v>
+        <v>0.9345451126481392</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-0.06545488735186078</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.3</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="R38" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="39">
@@ -2637,53 +2869,59 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PORD11</t>
+          <t>PVBI11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>89.98999999999999</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1.5</v>
       </c>
-      <c r="H39" t="n">
-        <v>89.38</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1698.22</v>
-      </c>
       <c r="J39" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1853.82</v>
+      </c>
+      <c r="L39" t="n">
         <v>15</v>
       </c>
-      <c r="K39" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.49934917428612</v>
-      </c>
       <c r="M39" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0006508257138797546</v>
+        <v>1.31447528128177</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P39" t="n">
-        <v>0.74</v>
+        <v>-0.1855247187182296</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.3</v>
+        <v>2.54</v>
+      </c>
+      <c r="R39" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="40">
@@ -2694,53 +2932,59 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CPTS11</t>
+          <t>LVBI11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.19</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1680</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>119</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1309</v>
+      </c>
+      <c r="L40" t="n">
         <v>15</v>
       </c>
-      <c r="K40" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.483262835675403</v>
-      </c>
       <c r="M40" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.01673716432459749</v>
+        <v>0.9281635451110883</v>
       </c>
       <c r="O40" t="n">
-        <v>2.37</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P40" t="n">
-        <v>18.96</v>
+        <v>-0.07183645488891166</v>
       </c>
       <c r="Q40" t="n">
-        <v>360.3</v>
+        <v>0.85</v>
+      </c>
+      <c r="R40" t="n">
+        <v>101.31</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="41">
@@ -2751,53 +2995,59 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HGLG11</t>
+          <t>VISC11</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>162.93</v>
+        <v>104.1</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>157.7</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1261.6</v>
-      </c>
       <c r="J41" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1569.1</v>
+      </c>
+      <c r="L41" t="n">
         <v>15</v>
       </c>
-      <c r="K41" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.113859758028624</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1138597580286236</v>
+        <v>1.112590846931863</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.1125908469318628</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.3</v>
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="42">
@@ -2808,53 +3058,59 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PVBI11</t>
+          <t>XPML11</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>86.76000000000001</v>
+        <v>97.45</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>1.5</v>
       </c>
-      <c r="H42" t="n">
-        <v>105.65</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1901.7</v>
-      </c>
       <c r="J42" t="n">
+        <v>118</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1888</v>
+      </c>
+      <c r="L42" t="n">
         <v>15</v>
       </c>
-      <c r="K42" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.679000556311853</v>
-      </c>
       <c r="M42" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1790005563118529</v>
+        <v>1.338711056661371</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>-0.1612889433386291</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.3</v>
+        <v>1.93</v>
+      </c>
+      <c r="R42" t="n">
+        <v>227.47</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="43">
@@ -2865,53 +3121,59 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BRCO11</t>
+          <t>RBVA11</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>93.01000000000001</v>
+        <v>111.24</v>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>123.91</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2106.47</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1358.4</v>
+      </c>
+      <c r="L43" t="n">
         <v>15</v>
       </c>
-      <c r="K43" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.859790872300693</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3597908723006933</v>
+        <v>0.9631912602589018</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-0.03680873974109822</v>
       </c>
       <c r="Q43" t="n">
-        <v>360.3</v>
+        <v>0.46</v>
+      </c>
+      <c r="R43" t="n">
+        <v>51.91</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="44">
@@ -2922,53 +3184,59 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RBVA11</t>
+          <t>CPTS11</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>111.24</v>
+        <v>8.16</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>111.38</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1336.56</v>
+        <v>1.5</v>
       </c>
       <c r="J44" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2015.44</v>
+      </c>
+      <c r="L44" t="n">
         <v>15</v>
       </c>
-      <c r="K44" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.180041533125188</v>
-      </c>
       <c r="M44" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1800415331251879</v>
+        <v>1.429074052986014</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-0.07092594701398647</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.3</v>
+        <v>11.71</v>
+      </c>
+      <c r="R44" t="n">
+        <v>100.03</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="45">
@@ -2979,53 +3247,59 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KFOF11</t>
+          <t>BRCR11</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>75.3</v>
+        <v>54.64</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="n">
-        <v>94.83</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1327.62</v>
-      </c>
       <c r="J45" t="n">
+        <v>59.48</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1249.08</v>
+      </c>
+      <c r="L45" t="n">
         <v>15</v>
       </c>
-      <c r="K45" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.172148455892487</v>
-      </c>
       <c r="M45" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1721484558924866</v>
+        <v>0.8856764865755219</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-0.1143235134244781</v>
       </c>
       <c r="Q45" t="n">
-        <v>360.3</v>
+        <v>2.71</v>
+      </c>
+      <c r="R45" t="n">
+        <v>161.23</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="46">
@@ -3036,53 +3310,59 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LVBI11</t>
+          <t>PORD11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>92.98999999999999</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>117.17</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1288.87</v>
+        <v>1.75</v>
       </c>
       <c r="J46" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2298.25</v>
+      </c>
+      <c r="L46" t="n">
         <v>15</v>
       </c>
-      <c r="K46" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.137936292271998</v>
-      </c>
       <c r="M46" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1379362922719976</v>
+        <v>1.629604176891947</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-0.1203958231080529</v>
       </c>
       <c r="Q46" t="n">
-        <v>360.3</v>
+        <v>1.85</v>
+      </c>
+      <c r="R46" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="47">
@@ -3093,53 +3373,59 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>XPML11</t>
+          <t>KFOF11</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>97.45</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1760</v>
+        <v>1.75</v>
       </c>
       <c r="J47" t="n">
+        <v>101</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2323</v>
+      </c>
+      <c r="L47" t="n">
         <v>15</v>
       </c>
-      <c r="K47" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.553894399278993</v>
-      </c>
       <c r="M47" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05389439927899287</v>
+        <v>1.647153487618837</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>-0.1028465123811628</v>
       </c>
       <c r="Q47" t="n">
-        <v>360.3</v>
+        <v>1.44</v>
+      </c>
+      <c r="R47" t="n">
+        <v>145.05</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="48">
@@ -3150,53 +3436,59 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HGRU11</t>
+          <t>BRCO11</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>116</v>
+        <v>95.77</v>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>128.6</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1414.6</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
+        <v>125.48</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1380.28</v>
+      </c>
+      <c r="L48" t="n">
         <v>15</v>
       </c>
-      <c r="K48" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.248942623420491</v>
-      </c>
       <c r="M48" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.2510573765795094</v>
+        <v>0.9787055600045323</v>
       </c>
       <c r="O48" t="n">
-        <v>2.21</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P48" t="n">
-        <v>284.36</v>
+        <v>-0.02129443999546765</v>
       </c>
       <c r="Q48" t="n">
-        <v>360.3</v>
+        <v>0.24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="49">
@@ -3207,53 +3499,59 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BRCR11</t>
+          <t>HGRU11</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>54.41</v>
+        <v>118.37</v>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="n">
-        <v>53.82</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1076.4</v>
-      </c>
       <c r="J49" t="n">
+        <v>137.91</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1517.01</v>
+      </c>
+      <c r="L49" t="n">
         <v>15</v>
       </c>
-      <c r="K49" t="n">
-        <v>16.20538811117161</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.9503476882863114</v>
-      </c>
       <c r="M49" t="n">
-        <v>1.205388111171608</v>
+        <v>14.23754661912352</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.04965231171368856</v>
+        <v>1.075655752153531</v>
       </c>
       <c r="O49" t="n">
-        <v>1.04</v>
+        <v>-0.7624533808764831</v>
       </c>
       <c r="P49" t="n">
-        <v>56.24</v>
+        <v>0.07565575215353104</v>
       </c>
       <c r="Q49" t="n">
-        <v>360.3</v>
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1340.79</v>
       </c>
     </row>
     <row r="50">
@@ -3264,53 +3562,59 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.09</v>
+        <v>18.89</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09</v>
+        <v>18.89</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8655.17</v>
+        <v>41.67</v>
       </c>
       <c r="G50" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>8991.93</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>832.65</v>
+        <v>0.5</v>
       </c>
       <c r="J50" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1900.37</v>
+      </c>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="K50" t="n">
-        <v>3.848254795596228</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.7351421429316213</v>
-      </c>
       <c r="M50" t="n">
-        <v>0.8482547955962279</v>
+        <v>5.435883043735434</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.01485785706837872</v>
+        <v>1.347482166709518</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>2.435883043735434</v>
       </c>
       <c r="P50" t="n">
-        <v>16.83</v>
+        <v>0.8474821667095178</v>
       </c>
       <c r="Q50" t="n">
-        <v>74.21000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3321,53 +3625,59 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10.64</v>
+        <v>0.01</v>
       </c>
       <c r="D51" t="n">
-        <v>10.64</v>
+        <v>0.01</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>32.27</v>
+        <v>129429.56</v>
       </c>
       <c r="G51" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>21.22</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>225.78</v>
+        <v>1.5</v>
       </c>
       <c r="J51" t="n">
+        <v>260634.68</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3857.39</v>
+      </c>
+      <c r="L51" t="n">
         <v>3</v>
       </c>
-      <c r="K51" t="n">
-        <v>3.848254795596228</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.1993399303802336</v>
-      </c>
       <c r="M51" t="n">
-        <v>0.8482547955962279</v>
+        <v>5.435883043735434</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.05066006961976643</v>
+        <v>2.735132755749473</v>
       </c>
       <c r="O51" t="n">
-        <v>2.7</v>
+        <v>2.435883043735434</v>
       </c>
       <c r="P51" t="n">
-        <v>57.38</v>
+        <v>1.235132755749473</v>
       </c>
       <c r="Q51" t="n">
-        <v>74.21000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3378,53 +3688,59 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>125013.66</v>
+        <v>8808.57</v>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>170738</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2344.23</v>
+        <v>0.75</v>
       </c>
       <c r="J52" t="n">
+        <v>13959.27</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1430.83</v>
+      </c>
+      <c r="L52" t="n">
         <v>3</v>
       </c>
-      <c r="K52" t="n">
-        <v>3.848254795596228</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.069707879330565</v>
-      </c>
       <c r="M52" t="n">
-        <v>0.8482547955962279</v>
+        <v>5.435883043735434</v>
       </c>
       <c r="N52" t="n">
-        <v>0.5697078793305645</v>
+        <v>1.014548697670969</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2.435883043735434</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.264548697670969</v>
       </c>
       <c r="Q52" t="n">
-        <v>74.21000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3435,53 +3751,59 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16.79</v>
+        <v>12.56</v>
       </c>
       <c r="D53" t="n">
-        <v>16.79</v>
+        <v>12.56</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>37.97</v>
+        <v>31.32</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>56.94</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>956.02</v>
+        <v>0.25</v>
       </c>
       <c r="J53" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="K53" t="n">
+        <v>477.7</v>
+      </c>
+      <c r="L53" t="n">
         <v>3</v>
       </c>
-      <c r="K53" t="n">
-        <v>3.848254795596228</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.8440648429538085</v>
-      </c>
       <c r="M53" t="n">
-        <v>0.8482547955962279</v>
+        <v>5.435883043735434</v>
       </c>
       <c r="N53" t="n">
-        <v>0.3440648429538085</v>
+        <v>0.338719423605475</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2.435883043735434</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>0.08871942360547502</v>
       </c>
       <c r="Q53" t="n">
-        <v>74.21000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3492,53 +3814,59 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIMH3</t>
+          <t>TGMA3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="D54" t="n">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>9.67</v>
+        <v>22.15</v>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1510.76</v>
-      </c>
       <c r="J54" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2361.64</v>
+      </c>
+      <c r="L54" t="n">
         <v>15</v>
       </c>
-      <c r="K54" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.333841762872007</v>
-      </c>
       <c r="M54" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.6661582371279935</v>
+        <v>1.674551684244576</v>
       </c>
       <c r="O54" t="n">
-        <v>105.38</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P54" t="n">
-        <v>754.52</v>
+        <v>-0.325448315755424</v>
       </c>
       <c r="Q54" t="n">
-        <v>2212.31</v>
+        <v>17.88</v>
+      </c>
+      <c r="R54" t="n">
+        <v>458.98</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="55">
@@ -3549,53 +3877,59 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CEAB3</t>
+          <t>AMBP3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="D55" t="n">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>5.4</v>
+        <v>19.05</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2056</v>
+        <v>1.75</v>
       </c>
       <c r="J55" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1801.8</v>
+      </c>
+      <c r="L55" t="n">
         <v>15</v>
       </c>
-      <c r="K55" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.815231184612278</v>
-      </c>
       <c r="M55" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.1847688153877216</v>
+        <v>1.277589820917616</v>
       </c>
       <c r="O55" t="n">
-        <v>40.72</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P55" t="n">
-        <v>209.28</v>
+        <v>-0.4724101790823845</v>
       </c>
       <c r="Q55" t="n">
-        <v>2212.31</v>
+        <v>48.81</v>
+      </c>
+      <c r="R55" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="56">
@@ -3606,53 +3940,59 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMBP3</t>
+          <t>TASA4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D56" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>21.03</v>
+        <v>14.8</v>
       </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>1.75</v>
       </c>
-      <c r="H56" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1318.35</v>
-      </c>
       <c r="J56" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2046.92</v>
+      </c>
+      <c r="L56" t="n">
         <v>15</v>
       </c>
-      <c r="K56" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.163964023459921</v>
-      </c>
       <c r="M56" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.5860359765400793</v>
+        <v>1.451395358104499</v>
       </c>
       <c r="O56" t="n">
-        <v>42.8</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P56" t="n">
-        <v>663.77</v>
+        <v>-0.2986046418955013</v>
       </c>
       <c r="Q56" t="n">
-        <v>2212.31</v>
+        <v>30.04</v>
+      </c>
+      <c r="R56" t="n">
+        <v>421.13</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="57">
@@ -3667,49 +4007,55 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D57" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>50.4</v>
+        <v>50.43</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="n">
-        <v>49.04</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2108.72</v>
-      </c>
       <c r="J57" t="n">
+        <v>58.35</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2684.1</v>
+      </c>
+      <c r="L57" t="n">
         <v>15</v>
       </c>
-      <c r="K57" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.861777385027044</v>
-      </c>
       <c r="M57" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.138222614972956</v>
+        <v>1.903196158466518</v>
       </c>
       <c r="O57" t="n">
-        <v>3.19</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P57" t="n">
-        <v>156.56</v>
+        <v>-0.0968038415334822</v>
       </c>
       <c r="Q57" t="n">
-        <v>2212.31</v>
+        <v>2.34</v>
+      </c>
+      <c r="R57" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="58">
@@ -3720,53 +4066,59 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TASA4</t>
+          <t>ELET3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>14.85</v>
+        <v>35.25</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>1.75</v>
       </c>
-      <c r="H58" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1874.4</v>
-      </c>
       <c r="J58" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3009.3</v>
+      </c>
+      <c r="L58" t="n">
         <v>15</v>
       </c>
-      <c r="K58" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.654897535232128</v>
-      </c>
       <c r="M58" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.09510246476787243</v>
+        <v>2.133783465471962</v>
       </c>
       <c r="O58" t="n">
-        <v>6.9</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P58" t="n">
-        <v>107.72</v>
+        <v>0.3837834654719621</v>
       </c>
       <c r="Q58" t="n">
-        <v>2212.31</v>
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="59">
@@ -3777,53 +4129,59 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TGMA3</t>
+          <t>SIMH3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="D59" t="n">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>22.15</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2263.2</v>
-      </c>
       <c r="J59" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2022.75</v>
+      </c>
+      <c r="L59" t="n">
         <v>15</v>
       </c>
-      <c r="K59" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.998166934345578</v>
-      </c>
       <c r="M59" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.001833065654422095</v>
+        <v>1.434257303952218</v>
       </c>
       <c r="O59" t="n">
-        <v>0.08</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P59" t="n">
-        <v>2.08</v>
+        <v>-0.5657426960477816</v>
       </c>
       <c r="Q59" t="n">
-        <v>2212.31</v>
+        <v>110.05</v>
+      </c>
+      <c r="R59" t="n">
+        <v>797.87</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="60">
@@ -3834,53 +4192,59 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>CEAB3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="D60" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>69.31999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>63.99</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1663.74</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3224</v>
+      </c>
+      <c r="L60" t="n">
         <v>15</v>
       </c>
-      <c r="K60" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.468906970372973</v>
-      </c>
       <c r="M60" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.2810930296270273</v>
+        <v>2.286019304383612</v>
       </c>
       <c r="O60" t="n">
-        <v>4.98</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P60" t="n">
-        <v>318.38</v>
+        <v>0.2860193043836121</v>
       </c>
       <c r="Q60" t="n">
-        <v>2212.31</v>
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2977.2</v>
       </c>
     </row>
     <row r="61">
@@ -3891,53 +4255,59 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ELET3</t>
+          <t>VALE3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>35.25</v>
+        <v>69.94</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>1.75</v>
       </c>
-      <c r="H61" t="n">
-        <v>34.61</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2422.7</v>
-      </c>
       <c r="J61" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1971.6</v>
+      </c>
+      <c r="L61" t="n">
         <v>15</v>
       </c>
-      <c r="K61" t="n">
-        <v>13.43577441020216</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.138988614280236</v>
-      </c>
       <c r="M61" t="n">
-        <v>-1.564225589797836</v>
+        <v>13.55878182399098</v>
       </c>
       <c r="N61" t="n">
-        <v>0.3889886142802363</v>
+        <v>1.397988728449978</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>-1.441218176009022</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>-0.3520112715500217</v>
       </c>
       <c r="Q61" t="n">
-        <v>2212.31</v>
+        <v>7.55</v>
+      </c>
+      <c r="R61" t="n">
+        <v>496.45</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2977.2</v>
       </c>
     </row>
   </sheetData>

--- a/movimentacao_saida.xlsx
+++ b/movimentacao_saida.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>14446.77</v>
+        <v>14535.12</v>
       </c>
       <c r="K2" t="n">
         <v>6905</v>
@@ -572,25 +572,25 @@
         <v>15</v>
       </c>
       <c r="M2" t="n">
-        <v>13.41972746735864</v>
+        <v>14.11605068801455</v>
       </c>
       <c r="N2" t="n">
-        <v>4.896080427037482</v>
+        <v>4.756091051075459</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.580272532641365</v>
+        <v>-0.883949311985452</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1039195729625177</v>
+        <v>-0.243908948924541</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="R2" t="n">
-        <v>146.56</v>
+        <v>354.11</v>
       </c>
       <c r="S2" t="n">
-        <v>2228.68</v>
+        <v>1283.34</v>
       </c>
     </row>
     <row r="3">
@@ -626,34 +626,34 @@
         <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>12021</v>
+        <v>13589</v>
       </c>
       <c r="K3" t="n">
-        <v>12021</v>
+        <v>13589</v>
       </c>
       <c r="L3" t="n">
         <v>15</v>
       </c>
       <c r="M3" t="n">
-        <v>13.41972746735864</v>
+        <v>14.11605068801455</v>
       </c>
       <c r="N3" t="n">
-        <v>8.523647040321155</v>
+        <v>9.359959636939088</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.580272532641365</v>
+        <v>-0.883949311985452</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.476352959678845</v>
+        <v>-0.6400403630609119</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>2082.12</v>
+        <v>929.23</v>
       </c>
       <c r="S3" t="n">
-        <v>2228.68</v>
+        <v>1283.34</v>
       </c>
     </row>
     <row r="4">
@@ -689,34 +689,34 @@
         <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>139.02</v>
+        <v>138.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3058.44</v>
+        <v>3040.4</v>
       </c>
       <c r="L4" t="n">
         <v>20</v>
       </c>
       <c r="M4" t="n">
-        <v>24.91420691509495</v>
+        <v>24.1024505406136</v>
       </c>
       <c r="N4" t="n">
-        <v>2.16862682422426</v>
+        <v>2.094195399230967</v>
       </c>
       <c r="O4" t="n">
-        <v>4.914206915094951</v>
+        <v>4.102450540613603</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3313731757757399</v>
+        <v>-0.405804600769033</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.36</v>
+        <v>4.26</v>
       </c>
       <c r="R4" t="n">
-        <v>467.34</v>
+        <v>589.16</v>
       </c>
       <c r="S4" t="n">
-        <v>2151.3</v>
+        <v>2710.67</v>
       </c>
     </row>
     <row r="5">
@@ -752,34 +752,34 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="K5" t="n">
-        <v>6326.43</v>
+        <v>6352.43</v>
       </c>
       <c r="L5" t="n">
         <v>20</v>
       </c>
       <c r="M5" t="n">
-        <v>24.91420691509495</v>
+        <v>24.1024505406136</v>
       </c>
       <c r="N5" t="n">
-        <v>4.485837812602859</v>
+        <v>4.375486672785413</v>
       </c>
       <c r="O5" t="n">
-        <v>4.914206915094951</v>
+        <v>4.102450540613603</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.5141621873971411</v>
+        <v>-0.6245133272145873</v>
       </c>
       <c r="Q5" t="n">
-        <v>244.98</v>
+        <v>305.28</v>
       </c>
       <c r="R5" t="n">
-        <v>725.13</v>
+        <v>906.6799999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>2151.3</v>
+        <v>2710.67</v>
       </c>
     </row>
     <row r="6">
@@ -815,34 +815,34 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>106.89</v>
+        <v>106.04</v>
       </c>
       <c r="K6" t="n">
-        <v>6092.73</v>
+        <v>6044.28</v>
       </c>
       <c r="L6" t="n">
         <v>20</v>
       </c>
       <c r="M6" t="n">
-        <v>24.91420691509495</v>
+        <v>24.1024505406136</v>
       </c>
       <c r="N6" t="n">
-        <v>4.320129775557433</v>
+        <v>4.163236208283037</v>
       </c>
       <c r="O6" t="n">
-        <v>4.914206915094951</v>
+        <v>4.102450540613603</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.679870224442567</v>
+        <v>-0.8367637917169626</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.970000000000001</v>
+        <v>11.46</v>
       </c>
       <c r="R6" t="n">
-        <v>958.83</v>
+        <v>1214.83</v>
       </c>
       <c r="S6" t="n">
-        <v>2151.3</v>
+        <v>2710.67</v>
       </c>
     </row>
     <row r="7">
@@ -878,25 +878,25 @@
         <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1272.44</v>
+        <v>1265.72</v>
       </c>
       <c r="K7" t="n">
-        <v>19659.2</v>
+        <v>19555.37</v>
       </c>
       <c r="L7" t="n">
         <v>20</v>
       </c>
       <c r="M7" t="n">
-        <v>24.91420691509495</v>
+        <v>24.1024505406136</v>
       </c>
       <c r="N7" t="n">
-        <v>13.93961250271039</v>
+        <v>13.46953226031419</v>
       </c>
       <c r="O7" t="n">
-        <v>4.914206915094951</v>
+        <v>4.102450540613603</v>
       </c>
       <c r="P7" t="n">
-        <v>6.439612502710395</v>
+        <v>5.969532260314191</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2151.3</v>
+        <v>2710.67</v>
       </c>
     </row>
     <row r="8">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>20.74</v>
+        <v>21.67</v>
       </c>
       <c r="K8" t="n">
-        <v>-41.48</v>
+        <v>-43.34</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02941193571520851</v>
+        <v>-0.02985213412796675</v>
       </c>
       <c r="O8" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.02941193571520851</v>
+        <v>-0.02985213412796675</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>41.48</v>
+        <v>43.34</v>
       </c>
       <c r="S8" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="9">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>37.02</v>
+        <v>35.55</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="10">
@@ -1067,25 +1067,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3678.72</v>
+        <v>3699.85</v>
       </c>
       <c r="K10" t="n">
-        <v>588.6</v>
+        <v>591.98</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4173545169231372</v>
+        <v>0.4077495699370963</v>
       </c>
       <c r="O10" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4173545169231372</v>
+        <v>0.4077495699370963</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="11">
@@ -1130,25 +1130,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14410.81</v>
+        <v>14498.06</v>
       </c>
       <c r="K11" t="n">
-        <v>7061.3</v>
+        <v>7104.05</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N11" t="n">
-        <v>5.006906983264268</v>
+        <v>4.893194588181406</v>
       </c>
       <c r="O11" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P11" t="n">
-        <v>5.006906983264268</v>
+        <v>4.893194588181406</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="12">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.85</v>
+        <v>32.68</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1202,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="13">
@@ -1256,25 +1256,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14338.47</v>
+        <v>14425.36</v>
       </c>
       <c r="K13" t="n">
-        <v>45739.72</v>
+        <v>46016.9</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N13" t="n">
-        <v>32.43234581175596</v>
+        <v>31.69595456744885</v>
       </c>
       <c r="O13" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P13" t="n">
-        <v>32.43234581175596</v>
+        <v>31.69595456744885</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="14">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>103.46</v>
+        <v>102.4</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="15">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.29</v>
+        <v>33.78</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="16">
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.55</v>
+        <v>44.32</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="17">
@@ -1517,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="18">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>26.47</v>
+        <v>24.64</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54.49</v>
+        <v>52.07</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>58.78</v>
+        <v>57.9</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1706,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="21">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.86</v>
+        <v>6.13</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="22">
@@ -1823,34 +1823,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>29.05</v>
+        <v>29.74</v>
       </c>
       <c r="K22" t="n">
-        <v>-29.05</v>
+        <v>-29.74</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.02059828188348137</v>
+        <v>-0.02048459780723883</v>
       </c>
       <c r="O22" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.02059828188348137</v>
+        <v>-0.02048459780723883</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>29.05</v>
+        <v>29.74</v>
       </c>
       <c r="S22" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="23">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>74.59999999999999</v>
+        <v>75.25</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="24">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.949999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1958,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="25">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7.94</v>
+        <v>8.16</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2021,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="26">
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>37.80659709434467</v>
+        <v>36.94656199363214</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.53</v>
+        <v>73.08</v>
       </c>
     </row>
     <row r="27">
@@ -2138,34 +2138,34 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>92.06999999999999</v>
+        <v>91.97</v>
       </c>
       <c r="K27" t="n">
-        <v>1288.98</v>
+        <v>1287.58</v>
       </c>
       <c r="L27" t="n">
         <v>20</v>
       </c>
       <c r="M27" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9139681026564481</v>
+        <v>0.8868715011649151</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.08603189734355188</v>
+        <v>-0.1131284988350849</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.32</v>
+        <v>1.79</v>
       </c>
       <c r="R27" t="n">
-        <v>121.33</v>
+        <v>164.24</v>
       </c>
       <c r="S27" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="28">
@@ -2201,34 +2201,34 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>10.45</v>
+        <v>11.14</v>
       </c>
       <c r="K28" t="n">
-        <v>3667.95</v>
+        <v>3910.14</v>
       </c>
       <c r="L28" t="n">
         <v>20</v>
       </c>
       <c r="M28" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N28" t="n">
-        <v>2.600807849725146</v>
+        <v>2.693263122730223</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.3991921502748541</v>
+        <v>-0.3067368772697767</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.87</v>
+        <v>39.98</v>
       </c>
       <c r="R28" t="n">
-        <v>562.99</v>
+        <v>445.33</v>
       </c>
       <c r="S28" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="29">
@@ -2264,34 +2264,34 @@
         <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>47.9</v>
+        <v>47.65</v>
       </c>
       <c r="K29" t="n">
-        <v>1820.2</v>
+        <v>1810.7</v>
       </c>
       <c r="L29" t="n">
         <v>20</v>
       </c>
       <c r="M29" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N29" t="n">
-        <v>1.290636581215587</v>
+        <v>1.247191030583973</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.2093634187844133</v>
+        <v>-0.2528089694160272</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.16</v>
+        <v>7.7</v>
       </c>
       <c r="R29" t="n">
-        <v>295.27</v>
+        <v>367.03</v>
       </c>
       <c r="S29" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="30">
@@ -2327,34 +2327,34 @@
         <v>2.5</v>
       </c>
       <c r="J30" t="n">
-        <v>33.99</v>
+        <v>34.75</v>
       </c>
       <c r="K30" t="n">
-        <v>3195.06</v>
+        <v>3266.5</v>
       </c>
       <c r="L30" t="n">
         <v>20</v>
       </c>
       <c r="M30" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N30" t="n">
-        <v>2.265499019436695</v>
+        <v>2.249930690563068</v>
       </c>
       <c r="O30" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.2345009805633049</v>
+        <v>-0.250069309436932</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.73</v>
+        <v>10.45</v>
       </c>
       <c r="R30" t="n">
-        <v>330.72</v>
+        <v>363.06</v>
       </c>
       <c r="S30" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="31">
@@ -2390,34 +2390,34 @@
         <v>8.5</v>
       </c>
       <c r="J31" t="n">
-        <v>92.98</v>
+        <v>94.28</v>
       </c>
       <c r="K31" t="n">
-        <v>11064.62</v>
+        <v>11219.32</v>
       </c>
       <c r="L31" t="n">
         <v>20</v>
       </c>
       <c r="M31" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N31" t="n">
-        <v>7.845513311311726</v>
+        <v>7.727749087784491</v>
       </c>
       <c r="O31" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.6544866886882739</v>
+        <v>-0.772250912215509</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.93</v>
+        <v>11.89</v>
       </c>
       <c r="R31" t="n">
-        <v>923.03</v>
+        <v>1121.17</v>
       </c>
       <c r="S31" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="32">
@@ -2453,34 +2453,34 @@
         <v>1.5</v>
       </c>
       <c r="J32" t="n">
-        <v>53.5</v>
+        <v>53.68</v>
       </c>
       <c r="K32" t="n">
-        <v>1819</v>
+        <v>1825.12</v>
       </c>
       <c r="L32" t="n">
         <v>20</v>
       </c>
       <c r="M32" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N32" t="n">
-        <v>1.28978570554398</v>
+        <v>1.257123374241686</v>
       </c>
       <c r="O32" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.2102142944560204</v>
+        <v>-0.2428766257583141</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.54</v>
+        <v>6.57</v>
       </c>
       <c r="R32" t="n">
-        <v>296.47</v>
+        <v>352.61</v>
       </c>
       <c r="S32" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="33">
@@ -2516,34 +2516,34 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>89.79000000000001</v>
+        <v>90.06</v>
       </c>
       <c r="K33" t="n">
-        <v>2514.12</v>
+        <v>2521.68</v>
       </c>
       <c r="L33" t="n">
         <v>20</v>
       </c>
       <c r="M33" t="n">
-        <v>17.98888018947299</v>
+        <v>17.79903535039579</v>
       </c>
       <c r="N33" t="n">
-        <v>1.782669619583414</v>
+        <v>1.736906543327438</v>
       </c>
       <c r="O33" t="n">
-        <v>-2.011119810527006</v>
+        <v>-2.200964649604206</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.217330380416586</v>
+        <v>-0.2630934566725616</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.41</v>
+        <v>4.24</v>
       </c>
       <c r="R33" t="n">
-        <v>306.5</v>
+        <v>381.96</v>
       </c>
       <c r="S33" t="n">
-        <v>2836.31</v>
+        <v>3195.4</v>
       </c>
     </row>
     <row r="34">
@@ -2582,31 +2582,31 @@
         <v>1.45</v>
       </c>
       <c r="K34" t="n">
-        <v>3577.95</v>
+        <v>3570.56</v>
       </c>
       <c r="L34" t="n">
         <v>12</v>
       </c>
       <c r="M34" t="n">
-        <v>10.44497394122349</v>
+        <v>10.17441181687155</v>
       </c>
       <c r="N34" t="n">
-        <v>2.536992174354636</v>
+        <v>2.459364006274872</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.555026058776505</v>
+        <v>-1.825588183128446</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.4630078256453642</v>
+        <v>-0.5406359937251284</v>
       </c>
       <c r="Q34" t="n">
-        <v>450.33</v>
+        <v>541.3200000000001</v>
       </c>
       <c r="R34" t="n">
-        <v>652.99</v>
+        <v>784.91</v>
       </c>
       <c r="S34" t="n">
-        <v>2193.09</v>
+        <v>2650.44</v>
       </c>
     </row>
     <row r="35">
@@ -2642,34 +2642,34 @@
         <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="K35" t="n">
-        <v>4015.19</v>
+        <v>4040.17</v>
       </c>
       <c r="L35" t="n">
         <v>12</v>
       </c>
       <c r="M35" t="n">
-        <v>10.44497394122349</v>
+        <v>10.17441181687155</v>
       </c>
       <c r="N35" t="n">
-        <v>2.847022906565768</v>
+        <v>2.782826413008478</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.555026058776505</v>
+        <v>-1.825588183128446</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.1529770934342318</v>
+        <v>-0.2171735869915223</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.77</v>
+        <v>214.49</v>
       </c>
       <c r="R35" t="n">
-        <v>215.75</v>
+        <v>315.3</v>
       </c>
       <c r="S35" t="n">
-        <v>2193.09</v>
+        <v>2650.44</v>
       </c>
     </row>
     <row r="36">
@@ -2708,31 +2708,31 @@
         <v>1.38</v>
       </c>
       <c r="K36" t="n">
-        <v>3300.62</v>
+        <v>3321.81</v>
       </c>
       <c r="L36" t="n">
         <v>12</v>
       </c>
       <c r="M36" t="n">
-        <v>10.44497394122349</v>
+        <v>10.17441181687155</v>
       </c>
       <c r="N36" t="n">
-        <v>2.340347716015707</v>
+        <v>2.288027634232146</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.555026058776505</v>
+        <v>-1.825588183128446</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.6596522839842933</v>
+        <v>-0.7119723657678541</v>
       </c>
       <c r="Q36" t="n">
-        <v>674.14</v>
+        <v>749.03</v>
       </c>
       <c r="R36" t="n">
-        <v>930.3200000000001</v>
+        <v>1033.66</v>
       </c>
       <c r="S36" t="n">
-        <v>2193.09</v>
+        <v>2650.44</v>
       </c>
     </row>
     <row r="37">
@@ -2771,31 +2771,31 @@
         <v>2.19</v>
       </c>
       <c r="K37" t="n">
-        <v>3836.91</v>
+        <v>3838.9</v>
       </c>
       <c r="L37" t="n">
         <v>12</v>
       </c>
       <c r="M37" t="n">
-        <v>10.44497394122349</v>
+        <v>10.17441181687155</v>
       </c>
       <c r="N37" t="n">
-        <v>2.720611144287384</v>
+        <v>2.644193763356058</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.555026058776505</v>
+        <v>-1.825588183128446</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.2793888557126158</v>
+        <v>-0.3558062366439421</v>
       </c>
       <c r="Q37" t="n">
-        <v>179.92</v>
+        <v>235.88</v>
       </c>
       <c r="R37" t="n">
-        <v>394.03</v>
+        <v>516.5700000000001</v>
       </c>
       <c r="S37" t="n">
-        <v>2193.09</v>
+        <v>2650.44</v>
       </c>
     </row>
     <row r="38">
@@ -2831,34 +2831,34 @@
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>164.75</v>
+        <v>168.6</v>
       </c>
       <c r="K38" t="n">
-        <v>1318</v>
+        <v>1348.8</v>
       </c>
       <c r="L38" t="n">
         <v>15</v>
       </c>
       <c r="M38" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N38" t="n">
-        <v>0.9345451126481392</v>
+        <v>0.9290391903968976</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.06545488735186078</v>
+        <v>-0.07096080960310236</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="R38" t="n">
-        <v>92.31</v>
+        <v>103.02</v>
       </c>
       <c r="S38" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="39">
@@ -2894,34 +2894,34 @@
         <v>1.5</v>
       </c>
       <c r="J39" t="n">
-        <v>102.99</v>
+        <v>102.19</v>
       </c>
       <c r="K39" t="n">
-        <v>1853.82</v>
+        <v>1839.42</v>
       </c>
       <c r="L39" t="n">
         <v>15</v>
       </c>
       <c r="M39" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N39" t="n">
-        <v>1.31447528128177</v>
+        <v>1.266973063167157</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.1855247187182296</v>
+        <v>-0.2330269368328428</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.54</v>
+        <v>3.31</v>
       </c>
       <c r="R39" t="n">
-        <v>261.65</v>
+        <v>338.31</v>
       </c>
       <c r="S39" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="40">
@@ -2957,34 +2957,34 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>119</v>
+        <v>118.79</v>
       </c>
       <c r="K40" t="n">
-        <v>1309</v>
+        <v>1306.69</v>
       </c>
       <c r="L40" t="n">
         <v>15</v>
       </c>
       <c r="M40" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9281635451110883</v>
+        <v>0.9000342672744086</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.07183645488891166</v>
+        <v>-0.09996573272559139</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.85</v>
+        <v>1.22</v>
       </c>
       <c r="R40" t="n">
-        <v>101.31</v>
+        <v>145.13</v>
       </c>
       <c r="S40" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="41">
@@ -3020,25 +3020,25 @@
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="K41" t="n">
-        <v>1569.1</v>
+        <v>1567.8</v>
       </c>
       <c r="L41" t="n">
         <v>15</v>
       </c>
       <c r="M41" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N41" t="n">
-        <v>1.112590846931863</v>
+        <v>1.079884076738031</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P41" t="n">
-        <v>0.1125908469318628</v>
+        <v>0.07988407673803088</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="42">
@@ -3083,34 +3083,34 @@
         <v>1.5</v>
       </c>
       <c r="J42" t="n">
-        <v>118</v>
+        <v>118.16</v>
       </c>
       <c r="K42" t="n">
-        <v>1888</v>
+        <v>1890.56</v>
       </c>
       <c r="L42" t="n">
         <v>15</v>
       </c>
       <c r="M42" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N42" t="n">
-        <v>1.338711056661371</v>
+        <v>1.302197754890835</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.1612889433386291</v>
+        <v>-0.1978022451091646</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="R42" t="n">
-        <v>227.47</v>
+        <v>287.17</v>
       </c>
       <c r="S42" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="43">
@@ -3146,34 +3146,34 @@
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>113.2</v>
+        <v>112.94</v>
       </c>
       <c r="K43" t="n">
-        <v>1358.4</v>
+        <v>1355.28</v>
       </c>
       <c r="L43" t="n">
         <v>15</v>
       </c>
       <c r="M43" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9631912602589018</v>
+        <v>0.9335025459379503</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.03680873974109822</v>
+        <v>-0.06649745406204965</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="R43" t="n">
-        <v>51.91</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="S43" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="44">
@@ -3209,34 +3209,34 @@
         <v>1.5</v>
       </c>
       <c r="J44" t="n">
-        <v>8.539999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="K44" t="n">
-        <v>2015.44</v>
+        <v>2010.72</v>
       </c>
       <c r="L44" t="n">
         <v>15</v>
       </c>
       <c r="M44" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N44" t="n">
-        <v>1.429074052986014</v>
+        <v>1.384962693442208</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.07092594701398647</v>
+        <v>-0.1150373065577921</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.71</v>
+        <v>19.6</v>
       </c>
       <c r="R44" t="n">
-        <v>100.03</v>
+        <v>167.01</v>
       </c>
       <c r="S44" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="45">
@@ -3272,34 +3272,34 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>59.48</v>
+        <v>59.3</v>
       </c>
       <c r="K45" t="n">
-        <v>1249.08</v>
+        <v>1245.3</v>
       </c>
       <c r="L45" t="n">
         <v>15</v>
       </c>
       <c r="M45" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8856764865755219</v>
+        <v>0.8577494838384169</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.1143235134244781</v>
+        <v>-0.1422505161615831</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.71</v>
+        <v>3.48</v>
       </c>
       <c r="R45" t="n">
-        <v>161.23</v>
+        <v>206.52</v>
       </c>
       <c r="S45" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="46">
@@ -3335,34 +3335,34 @@
         <v>1.75</v>
       </c>
       <c r="J46" t="n">
-        <v>91.93000000000001</v>
+        <v>91.13</v>
       </c>
       <c r="K46" t="n">
-        <v>2298.25</v>
+        <v>2278.25</v>
       </c>
       <c r="L46" t="n">
         <v>15</v>
       </c>
       <c r="M46" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N46" t="n">
-        <v>1.629604176891947</v>
+        <v>1.569234531080762</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.1203958231080529</v>
+        <v>-0.1807654689192377</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="R46" t="n">
-        <v>169.8</v>
+        <v>262.44</v>
       </c>
       <c r="S46" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="47">
@@ -3398,34 +3398,34 @@
         <v>1.75</v>
       </c>
       <c r="J47" t="n">
-        <v>101</v>
+        <v>100.65</v>
       </c>
       <c r="K47" t="n">
-        <v>2323</v>
+        <v>2314.95</v>
       </c>
       <c r="L47" t="n">
         <v>15</v>
       </c>
       <c r="M47" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N47" t="n">
-        <v>1.647153487618837</v>
+        <v>1.594513103358021</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.1028465123811628</v>
+        <v>-0.1554868966419793</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="R47" t="n">
-        <v>145.05</v>
+        <v>225.74</v>
       </c>
       <c r="S47" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="48">
@@ -3461,34 +3461,34 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>125.48</v>
+        <v>122.98</v>
       </c>
       <c r="K48" t="n">
-        <v>1380.28</v>
+        <v>1352.78</v>
       </c>
       <c r="L48" t="n">
         <v>15</v>
       </c>
       <c r="M48" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N48" t="n">
-        <v>0.9787055600045323</v>
+        <v>0.9317805723495812</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.02129443999546765</v>
+        <v>-0.06821942765041877</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R48" t="n">
-        <v>30.03</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="S48" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="49">
@@ -3524,25 +3524,25 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>137.91</v>
+        <v>135.96</v>
       </c>
       <c r="K49" t="n">
-        <v>1517.01</v>
+        <v>1495.56</v>
       </c>
       <c r="L49" t="n">
         <v>15</v>
       </c>
       <c r="M49" t="n">
-        <v>14.23754661912352</v>
+        <v>13.77999721040279</v>
       </c>
       <c r="N49" t="n">
-        <v>1.075655752153531</v>
+        <v>1.030125927928517</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.7624533808764831</v>
+        <v>-1.220002789597213</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07565575215353104</v>
+        <v>0.03012592792851732</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1340.79</v>
+        <v>1930.92</v>
       </c>
     </row>
     <row r="50">
@@ -3587,25 +3587,25 @@
         <v>0.5</v>
       </c>
       <c r="J50" t="n">
-        <v>100.6</v>
+        <v>94.22</v>
       </c>
       <c r="K50" t="n">
-        <v>1900.37</v>
+        <v>1779.76</v>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>5.435883043735434</v>
+        <v>6.100449607303923</v>
       </c>
       <c r="N50" t="n">
-        <v>1.347482166709518</v>
+        <v>1.225879885454317</v>
       </c>
       <c r="O50" t="n">
-        <v>2.435883043735434</v>
+        <v>3.100449607303923</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8474821667095178</v>
+        <v>0.7258798854543169</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -3650,25 +3650,25 @@
         <v>1.5</v>
       </c>
       <c r="J51" t="n">
-        <v>260634.68</v>
+        <v>316532.39</v>
       </c>
       <c r="K51" t="n">
-        <v>3857.39</v>
+        <v>4684.68</v>
       </c>
       <c r="L51" t="n">
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>5.435883043735434</v>
+        <v>6.100449607303923</v>
       </c>
       <c r="N51" t="n">
-        <v>2.735132755749473</v>
+        <v>3.226758091984385</v>
       </c>
       <c r="O51" t="n">
-        <v>2.435883043735434</v>
+        <v>3.100449607303923</v>
       </c>
       <c r="P51" t="n">
-        <v>1.235132755749473</v>
+        <v>1.726758091984385</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -3713,25 +3713,25 @@
         <v>0.75</v>
       </c>
       <c r="J52" t="n">
-        <v>13959.27</v>
+        <v>17655.84</v>
       </c>
       <c r="K52" t="n">
-        <v>1430.83</v>
+        <v>1809.72</v>
       </c>
       <c r="L52" t="n">
         <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>5.435883043735434</v>
+        <v>6.100449607303923</v>
       </c>
       <c r="N52" t="n">
-        <v>1.014548697670969</v>
+        <v>1.246516016937332</v>
       </c>
       <c r="O52" t="n">
-        <v>2.435883043735434</v>
+        <v>3.100449607303923</v>
       </c>
       <c r="P52" t="n">
-        <v>0.264548697670969</v>
+        <v>0.4965160169373322</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -3776,25 +3776,25 @@
         <v>0.25</v>
       </c>
       <c r="J53" t="n">
-        <v>38.03</v>
+        <v>46.39</v>
       </c>
       <c r="K53" t="n">
-        <v>477.7</v>
+        <v>582.61</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>5.435883043735434</v>
+        <v>6.100449607303923</v>
       </c>
       <c r="N53" t="n">
-        <v>0.338719423605475</v>
+        <v>0.401295612927889</v>
       </c>
       <c r="O53" t="n">
-        <v>2.435883043735434</v>
+        <v>3.100449607303923</v>
       </c>
       <c r="P53" t="n">
-        <v>0.08871942360547502</v>
+        <v>0.151295612927889</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -3839,34 +3839,34 @@
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>25.67</v>
+        <v>26.59</v>
       </c>
       <c r="K54" t="n">
-        <v>2361.64</v>
+        <v>2446.28</v>
       </c>
       <c r="L54" t="n">
         <v>15</v>
       </c>
       <c r="M54" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N54" t="n">
-        <v>1.674551684244576</v>
+        <v>1.684971819902226</v>
       </c>
       <c r="O54" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.325448315755424</v>
+        <v>-0.3150281800977737</v>
       </c>
       <c r="Q54" t="n">
-        <v>17.88</v>
+        <v>17.2</v>
       </c>
       <c r="R54" t="n">
-        <v>458.98</v>
+        <v>457.36</v>
       </c>
       <c r="S54" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="55">
@@ -3902,34 +3902,34 @@
         <v>1.75</v>
       </c>
       <c r="J55" t="n">
-        <v>13.65</v>
+        <v>15.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1801.8</v>
+        <v>2046</v>
       </c>
       <c r="L55" t="n">
         <v>15</v>
       </c>
       <c r="M55" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N55" t="n">
-        <v>1.277589820917616</v>
+        <v>1.409263184721273</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.4724101790823845</v>
+        <v>-0.3407368152787273</v>
       </c>
       <c r="Q55" t="n">
-        <v>48.81</v>
+        <v>31.92</v>
       </c>
       <c r="R55" t="n">
-        <v>666.25</v>
+        <v>494.69</v>
       </c>
       <c r="S55" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="56">
@@ -3965,34 +3965,34 @@
         <v>1.75</v>
       </c>
       <c r="J56" t="n">
-        <v>14.02</v>
+        <v>14.1</v>
       </c>
       <c r="K56" t="n">
-        <v>2046.92</v>
+        <v>2058.6</v>
       </c>
       <c r="L56" t="n">
         <v>15</v>
       </c>
       <c r="M56" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N56" t="n">
-        <v>1.451395358104499</v>
+        <v>1.417941931606653</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.2986046418955013</v>
+        <v>-0.3320580683933472</v>
       </c>
       <c r="Q56" t="n">
-        <v>30.04</v>
+        <v>34.19</v>
       </c>
       <c r="R56" t="n">
-        <v>421.13</v>
+        <v>482.09</v>
       </c>
       <c r="S56" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="57">
@@ -4028,34 +4028,34 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>58.35</v>
+        <v>58.08</v>
       </c>
       <c r="K57" t="n">
-        <v>2684.1</v>
+        <v>2671.68</v>
       </c>
       <c r="L57" t="n">
         <v>15</v>
       </c>
       <c r="M57" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N57" t="n">
-        <v>1.903196158466518</v>
+        <v>1.840224958629584</v>
       </c>
       <c r="O57" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.0968038415334822</v>
+        <v>-0.1597750413704155</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.34</v>
+        <v>3.99</v>
       </c>
       <c r="R57" t="n">
-        <v>136.52</v>
+        <v>231.97</v>
       </c>
       <c r="S57" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="58">
@@ -4091,25 +4091,25 @@
         <v>1.75</v>
       </c>
       <c r="J58" t="n">
-        <v>42.99</v>
+        <v>43.6</v>
       </c>
       <c r="K58" t="n">
-        <v>3009.3</v>
+        <v>3052</v>
       </c>
       <c r="L58" t="n">
         <v>15</v>
       </c>
       <c r="M58" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N58" t="n">
-        <v>2.133783465471962</v>
+        <v>2.102185356680999</v>
       </c>
       <c r="O58" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3837834654719621</v>
+        <v>0.3521853566809989</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="59">
@@ -4154,34 +4154,34 @@
         <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>7.25</v>
+        <v>7.65</v>
       </c>
       <c r="K59" t="n">
-        <v>2022.75</v>
+        <v>2134.35</v>
       </c>
       <c r="L59" t="n">
         <v>15</v>
       </c>
       <c r="M59" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N59" t="n">
-        <v>1.434257303952218</v>
+        <v>1.470117731334237</v>
       </c>
       <c r="O59" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.5657426960477816</v>
+        <v>-0.5298822686657634</v>
       </c>
       <c r="Q59" t="n">
-        <v>110.05</v>
+        <v>100.56</v>
       </c>
       <c r="R59" t="n">
-        <v>797.87</v>
+        <v>769.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="60">
@@ -4217,25 +4217,25 @@
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>8.06</v>
+        <v>9.59</v>
       </c>
       <c r="K60" t="n">
-        <v>3224</v>
+        <v>3836</v>
       </c>
       <c r="L60" t="n">
         <v>15</v>
       </c>
       <c r="M60" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N60" t="n">
-        <v>2.286019304383612</v>
+        <v>2.642196273993549</v>
       </c>
       <c r="O60" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P60" t="n">
-        <v>0.2860193043836121</v>
+        <v>0.6421962739935494</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
     <row r="61">
@@ -4280,34 +4280,34 @@
         <v>1.75</v>
       </c>
       <c r="J61" t="n">
-        <v>65.72</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>1971.6</v>
+        <v>1975.5</v>
       </c>
       <c r="L61" t="n">
         <v>15</v>
       </c>
       <c r="M61" t="n">
-        <v>13.55878182399098</v>
+        <v>13.92760478639778</v>
       </c>
       <c r="N61" t="n">
-        <v>1.397988728449978</v>
+        <v>1.360703529529264</v>
       </c>
       <c r="O61" t="n">
-        <v>-1.441218176009022</v>
+        <v>-1.072395213602215</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.3520112715500217</v>
+        <v>-0.389296470470736</v>
       </c>
       <c r="Q61" t="n">
-        <v>7.55</v>
+        <v>8.58</v>
       </c>
       <c r="R61" t="n">
-        <v>496.45</v>
+        <v>565.1900000000001</v>
       </c>
       <c r="S61" t="n">
-        <v>2977.2</v>
+        <v>3000.6</v>
       </c>
     </row>
   </sheetData>
